--- a/OpenXmlDemo/read.xlsx
+++ b/OpenXmlDemo/read.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C5132C-230C-446B-80EB-4D655ADACD77}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B39A61-3F00-4178-88E3-07CB06BF74E9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +48,10 @@
   </si>
   <si>
     <t>马六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -440,4 +445,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6587321B-9FB1-4D3B-A811-8BDD554757B6}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>